--- a/data/lst/AVFAD/AVFAD_metadata.xlsx
+++ b/data/lst/AVFAD/AVFAD_metadata.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F83DA-E1E9-430F-8EC2-B386F18FF445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="AVFAD" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AVFAD!$A$1:$Z$709</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classifications!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3012,7 +3011,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
@@ -3261,8 +3260,20 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3273,17 +3284,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3294,14 +3299,8 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3321,7 +3320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3396,23 +3395,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3448,23 +3430,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3640,14 +3605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM709"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N495" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q516" sqref="Q516"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="37" bestFit="1" customWidth="1"/>
@@ -15060,7 +15025,7 @@
         <v>1.6</v>
       </c>
       <c r="H98" s="39">
-        <f t="shared" ref="H98:H129" si="3">(F98/(G98^2))</f>
+        <f t="shared" ref="H98:H111" si="3">(F98/(G98^2))</f>
         <v>22.265624999999996</v>
       </c>
       <c r="I98" s="21" t="s">
@@ -45318,7 +45283,7 @@
         <v>1.63</v>
       </c>
       <c r="H357" s="39">
-        <f t="shared" ref="H357:H388" si="13">(F357/(G357^2))</f>
+        <f t="shared" ref="H357:H384" si="13">(F357/(G357^2))</f>
         <v>24.464601603372351</v>
       </c>
       <c r="I357" s="21" t="s">
@@ -63355,10 +63320,10 @@
       <c r="P511" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Q511" s="54" t="s">
+      <c r="Q511" s="41" t="s">
         <v>735</v>
       </c>
-      <c r="R511" s="54">
+      <c r="R511" s="41">
         <v>8000</v>
       </c>
       <c r="S511" s="18" t="s">
@@ -63472,10 +63437,10 @@
       <c r="P512" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Q512" s="54" t="s">
+      <c r="Q512" s="41" t="s">
         <v>735</v>
       </c>
-      <c r="R512" s="54">
+      <c r="R512" s="41">
         <v>8000</v>
       </c>
       <c r="S512" s="18" t="s">
@@ -63589,10 +63554,10 @@
       <c r="P513" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Q513" s="54" t="s">
+      <c r="Q513" s="41" t="s">
         <v>735</v>
       </c>
-      <c r="R513" s="54">
+      <c r="R513" s="41">
         <v>8000</v>
       </c>
       <c r="S513" s="18" t="s">
@@ -67423,7 +67388,7 @@
         <v>1.7</v>
       </c>
       <c r="H546" s="39">
-        <f t="shared" ref="H546:H577" si="19">(F546/(G546^2))</f>
+        <f t="shared" ref="H546:H565" si="19">(F546/(G546^2))</f>
         <v>24.221453287197235</v>
       </c>
       <c r="I546" s="21" t="s">
@@ -82280,7 +82245,7 @@
         <v>1.5</v>
       </c>
       <c r="H673" s="39">
-        <f t="shared" ref="H673:H704" si="24">(F673/(G673^2))</f>
+        <f t="shared" ref="H673:H674" si="24">(F673/(G673^2))</f>
         <v>24.888888888888889</v>
       </c>
       <c r="I673" s="21" t="s">
@@ -86587,14 +86552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="118.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -86652,14 +86617,14 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>626</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="42">
         <f>SUM(C3:C28)</f>
         <v>168</v>
       </c>
@@ -86675,10 +86640,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -86691,10 +86656,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="52"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
@@ -86707,12 +86672,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A6)</f>
         <v>28</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="52"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
@@ -86725,10 +86690,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
@@ -86741,10 +86706,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A8)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
@@ -86757,10 +86722,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A9)</f>
         <v>27</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="52"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
@@ -86773,10 +86738,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A10)</f>
         <v>23</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="52"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
@@ -86789,10 +86754,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="52"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
@@ -86805,10 +86770,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="52"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
@@ -86821,10 +86786,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A13)</f>
         <v>30</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="52"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
@@ -86837,10 +86802,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A14)</f>
         <v>13</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="52"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
@@ -86853,10 +86818,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A15)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="52"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
@@ -86869,10 +86834,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A16)</f>
         <v>6</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="52"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
@@ -86885,10 +86850,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A17)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="52"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
@@ -86901,10 +86866,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A18)</f>
         <v>4</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="52"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
@@ -86917,10 +86882,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="52"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
@@ -86933,10 +86898,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="52"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
@@ -86949,10 +86914,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A21)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="52"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
@@ -86965,12 +86930,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A22)</f>
         <v>9</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="48" t="s">
         <v>638</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="52"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
@@ -86983,10 +86948,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A23)</f>
         <v>13</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="52"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
@@ -86999,12 +86964,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A24)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="50" t="s">
         <v>640</v>
       </c>
       <c r="E24" s="33"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="52"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
@@ -87017,10 +86982,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A25)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="52"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
@@ -87033,10 +86998,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A26)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="52"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
@@ -87049,10 +87014,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A27)</f>
         <v>1</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="52"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
@@ -87065,10 +87030,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A28)</f>
         <v>11</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="52"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
@@ -87083,10 +87048,10 @@
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="50" t="s">
         <v>644</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="42">
         <f>SUM(C29:C32)</f>
         <v>104</v>
       </c>
@@ -87104,8 +87069,8 @@
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="34"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="53"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
@@ -87120,8 +87085,8 @@
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="53"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
@@ -87136,8 +87101,8 @@
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="53"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
@@ -87150,14 +87115,14 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A33)</f>
         <v>11</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="48" t="s">
         <v>646</v>
       </c>
       <c r="E33" s="31"/>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="50" t="s">
         <v>647</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="42">
         <f>SUM(C33:C36)</f>
         <v>11</v>
       </c>
@@ -87173,10 +87138,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A34)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="34"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="53"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
@@ -87189,10 +87154,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A35)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="46"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="34"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="53"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
@@ -87207,8 +87172,8 @@
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="53"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
@@ -87221,14 +87186,14 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A37)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="48" t="s">
         <v>652</v>
       </c>
       <c r="E37" s="31"/>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="50" t="s">
         <v>653</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="42">
         <f>SUM(C37:C51)</f>
         <v>0</v>
       </c>
@@ -87244,10 +87209,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A38)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="45"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
@@ -87260,10 +87225,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A39)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="53"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
@@ -87276,10 +87241,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A40)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="34"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="53"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
@@ -87292,12 +87257,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A41)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="48" t="s">
         <v>658</v>
       </c>
       <c r="E41" s="34"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="53"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="43"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
@@ -87310,10 +87275,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A42)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="53"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
@@ -87326,10 +87291,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A43)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="34"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="53"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
@@ -87342,10 +87307,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A44)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="45"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="34"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="53"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
@@ -87358,10 +87323,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A45)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="34"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="53"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
@@ -87374,10 +87339,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A46)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="34"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="53"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
@@ -87390,10 +87355,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A47)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="46"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="34"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="53"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
@@ -87406,12 +87371,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A48)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="50" t="s">
         <v>666</v>
       </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="53"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
@@ -87424,10 +87389,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A49)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="42"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="53"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="43"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
@@ -87440,10 +87405,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A50)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="29"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="53"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
@@ -87458,8 +87423,8 @@
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="53"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
@@ -87472,14 +87437,14 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A52)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="50" t="s">
         <v>671</v>
       </c>
       <c r="E52" s="33"/>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="50" t="s">
         <v>672</v>
       </c>
-      <c r="G52" s="52">
+      <c r="G52" s="42">
         <f>SUM(C52:C71)</f>
         <v>0</v>
       </c>
@@ -87495,10 +87460,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A53)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="43"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="29"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="53"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
@@ -87515,8 +87480,8 @@
         <v>675</v>
       </c>
       <c r="E54" s="34"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="53"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
@@ -87529,12 +87494,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A55)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="50" t="s">
         <v>677</v>
       </c>
       <c r="E55" s="29"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="53"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="43"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
@@ -87547,10 +87512,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A56)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="42"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="29"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="53"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="43"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
@@ -87563,10 +87528,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A57)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="42"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="29"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="53"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="43"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
@@ -87579,10 +87544,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A58)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="42"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="29"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="53"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="43"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
@@ -87595,10 +87560,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A59)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="42"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="29"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="53"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
@@ -87611,10 +87576,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A60)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="42"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="29"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="53"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
@@ -87627,10 +87592,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A61)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="42"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="29"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="53"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
@@ -87643,10 +87608,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A62)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="42"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="29"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="53"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
@@ -87659,10 +87624,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A63)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="42"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="29"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="53"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="43"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
@@ -87675,10 +87640,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A64)</f>
         <v>0</v>
       </c>
-      <c r="D64" s="42"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="29"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="53"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="43"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
@@ -87691,10 +87656,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A65)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="29"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="53"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="43"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
@@ -87707,10 +87672,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A66)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="42"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="29"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="53"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="43"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
@@ -87723,10 +87688,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A67)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="43"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="29"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="53"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="43"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
@@ -87739,12 +87704,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A68)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="48" t="s">
         <v>691</v>
       </c>
       <c r="E68" s="34"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="53"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
@@ -87757,10 +87722,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A69)</f>
         <v>0</v>
       </c>
-      <c r="D69" s="45"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="34"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="53"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="43"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
@@ -87773,10 +87738,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A70)</f>
         <v>0</v>
       </c>
-      <c r="D70" s="45"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="34"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="53"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
@@ -87789,10 +87754,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A71)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="46"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="32"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="53"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="43"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
@@ -87805,14 +87770,14 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A72)</f>
         <v>0</v>
       </c>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="48" t="s">
         <v>696</v>
       </c>
       <c r="E72" s="31"/>
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="G72" s="52">
+      <c r="G72" s="42">
         <f>SUM(C72:C84)</f>
         <v>3</v>
       </c>
@@ -87828,10 +87793,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A73)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="45"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="34"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="53"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="43"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
@@ -87844,10 +87809,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A74)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="45"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="34"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="53"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="43"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
@@ -87860,10 +87825,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A75)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="46"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="34"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="53"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="43"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
@@ -87878,8 +87843,8 @@
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="34"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="53"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="43"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
@@ -87894,8 +87859,8 @@
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="34"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="53"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="43"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
@@ -87908,12 +87873,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A78)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="48" t="s">
         <v>704</v>
       </c>
       <c r="E78" s="34"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="53"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="43"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="28">
@@ -87926,10 +87891,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A79)</f>
         <v>0</v>
       </c>
-      <c r="D79" s="46"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="34"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="53"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="43"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
@@ -87942,12 +87907,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A80)</f>
         <v>3</v>
       </c>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="48" t="s">
         <v>706</v>
       </c>
       <c r="E80" s="34"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="53"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="43"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
@@ -87960,10 +87925,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A81)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="46"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="34"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="53"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="43"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
@@ -87978,8 +87943,8 @@
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="34"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="53"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="43"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
@@ -87994,8 +87959,8 @@
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="34"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="53"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="43"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
@@ -88010,8 +87975,8 @@
       </c>
       <c r="D84" s="28"/>
       <c r="E84" s="32"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="53"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="43"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
@@ -88024,14 +87989,14 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A85)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="50" t="s">
         <v>712</v>
       </c>
       <c r="E85" s="33"/>
-      <c r="F85" s="41" t="s">
+      <c r="F85" s="50" t="s">
         <v>713</v>
       </c>
-      <c r="G85" s="52">
+      <c r="G85" s="42">
         <f>SUM(C85:C109)</f>
         <v>40</v>
       </c>
@@ -88047,10 +88012,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A86)</f>
         <v>26</v>
       </c>
-      <c r="D86" s="42"/>
+      <c r="D86" s="46"/>
       <c r="E86" s="29"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="53"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="43"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
@@ -88063,10 +88028,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A87)</f>
         <v>3</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="D87" s="46"/>
       <c r="E87" s="29"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="53"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="43"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="28">
@@ -88079,10 +88044,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A88)</f>
         <v>4</v>
       </c>
-      <c r="D88" s="42"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="29"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="53"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="43"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
@@ -88095,10 +88060,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A89)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="42"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="29"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="53"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="43"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
@@ -88111,10 +88076,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A90)</f>
         <v>0</v>
       </c>
-      <c r="D90" s="42"/>
+      <c r="D90" s="46"/>
       <c r="E90" s="29"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="53"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="43"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
@@ -88127,10 +88092,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A91)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="43"/>
+      <c r="D91" s="47"/>
       <c r="E91" s="29"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="53"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="43"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
@@ -88143,12 +88108,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A92)</f>
         <v>0</v>
       </c>
-      <c r="D92" s="41" t="s">
+      <c r="D92" s="50" t="s">
         <v>718</v>
       </c>
       <c r="E92" s="29"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="53"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="43"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
@@ -88161,10 +88126,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A93)</f>
         <v>0</v>
       </c>
-      <c r="D93" s="42"/>
+      <c r="D93" s="46"/>
       <c r="E93" s="29"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="53"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="43"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
@@ -88177,10 +88142,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A94)</f>
         <v>0</v>
       </c>
-      <c r="D94" s="42"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="29"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="53"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="43"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
@@ -88193,10 +88158,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A95)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="42"/>
+      <c r="D95" s="46"/>
       <c r="E95" s="29"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="53"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="43"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
@@ -88209,10 +88174,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A96)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="42"/>
+      <c r="D96" s="46"/>
       <c r="E96" s="29"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="53"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="43"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="28">
@@ -88225,10 +88190,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A97)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="42"/>
+      <c r="D97" s="46"/>
       <c r="E97" s="29"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="53"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="43"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
@@ -88241,10 +88206,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A98)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="42"/>
+      <c r="D98" s="46"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="53"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="43"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
@@ -88257,10 +88222,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A99)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="43"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="29"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="53"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="43"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
@@ -88273,12 +88238,12 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A100)</f>
         <v>4</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" s="50" t="s">
         <v>726</v>
       </c>
       <c r="E100" s="29"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="53"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="43"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
@@ -88291,10 +88256,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A101)</f>
         <v>0</v>
       </c>
-      <c r="D101" s="42"/>
+      <c r="D101" s="46"/>
       <c r="E101" s="29"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="53"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="43"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
@@ -88307,10 +88272,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A102)</f>
         <v>3</v>
       </c>
-      <c r="D102" s="42"/>
+      <c r="D102" s="46"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="53"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="43"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
@@ -88323,10 +88288,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A103)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="42"/>
+      <c r="D103" s="46"/>
       <c r="E103" s="29"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="53"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="43"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
@@ -88339,10 +88304,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A104)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="42"/>
+      <c r="D104" s="46"/>
       <c r="E104" s="29"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="53"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="43"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
@@ -88355,10 +88320,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A105)</f>
         <v>0</v>
       </c>
-      <c r="D105" s="42"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="29"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="53"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="43"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="28">
@@ -88371,10 +88336,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A106)</f>
         <v>0</v>
       </c>
-      <c r="D106" s="42"/>
+      <c r="D106" s="46"/>
       <c r="E106" s="29"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="53"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="43"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
@@ -88387,10 +88352,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A107)</f>
         <v>0</v>
       </c>
-      <c r="D107" s="42"/>
+      <c r="D107" s="46"/>
       <c r="E107" s="29"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="53"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="43"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
@@ -88403,10 +88368,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A108)</f>
         <v>0</v>
       </c>
-      <c r="D108" s="42"/>
+      <c r="D108" s="46"/>
       <c r="E108" s="29"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="53"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="43"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
@@ -88419,10 +88384,10 @@
         <f>COUNTIF(AVFAD!$O$2:$O$825,Classifications!A109)</f>
         <v>0</v>
       </c>
-      <c r="D109" s="43"/>
+      <c r="D109" s="47"/>
       <c r="E109" s="30"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="53"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="43"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
@@ -88437,10 +88402,10 @@
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="31"/>
-      <c r="F110" s="41" t="s">
+      <c r="F110" s="50" t="s">
         <v>735</v>
       </c>
-      <c r="G110" s="52">
+      <c r="G110" s="42">
         <f>SUM(C110:C113)</f>
         <v>17</v>
       </c>
@@ -88458,8 +88423,8 @@
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="34"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="53"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="43"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
@@ -88474,8 +88439,8 @@
       </c>
       <c r="D112" s="28"/>
       <c r="E112" s="34"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="53"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="43"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
@@ -88490,8 +88455,8 @@
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="32"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="53"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="43"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
@@ -88524,26 +88489,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G72:G84"/>
-    <mergeCell ref="G85:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G3:G28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G37:G51"/>
-    <mergeCell ref="G52:G71"/>
-    <mergeCell ref="F3:F28"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E21"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F51"/>
-    <mergeCell ref="F52:F71"/>
-    <mergeCell ref="F72:F84"/>
     <mergeCell ref="F110:F113"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="D37:D40"/>
@@ -88559,6 +88504,26 @@
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="D85:D91"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F51"/>
+    <mergeCell ref="F52:F71"/>
+    <mergeCell ref="F72:F84"/>
+    <mergeCell ref="F3:F28"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="G72:G84"/>
+    <mergeCell ref="G85:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G3:G28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G37:G51"/>
+    <mergeCell ref="G52:G71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -88566,14 +88531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -88705,14 +88670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IY80"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="IZ2" sqref="IZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="10.7109375" style="10"/>
     <col min="7" max="7" width="4.7109375" style="10" customWidth="1"/>
